--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3888.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3888.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.187880753011747</v>
+        <v>1.884062051773071</v>
       </c>
       <c r="B1">
-        <v>2.277536392296514</v>
+        <v>2.701278924942017</v>
       </c>
       <c r="C1">
-        <v>2.300867109633161</v>
+        <v>5.145395755767822</v>
       </c>
       <c r="D1">
-        <v>2.869543241888866</v>
+        <v>3.654800176620483</v>
       </c>
       <c r="E1">
-        <v>3.641798454496629</v>
+        <v>0.8789551258087158</v>
       </c>
     </row>
   </sheetData>
